--- a/rtu/eagle/BOM.xlsx
+++ b/rtu/eagle/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="114">
   <si>
     <t xml:space="preserve">IC1</t>
   </si>
@@ -67,19 +67,22 @@
     <t xml:space="preserve">IC7</t>
   </si>
   <si>
-    <t xml:space="preserve">SN65HVD72DRB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSON-8</t>
+    <t xml:space="preserve">ISL3172EIBZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOIC-8</t>
   </si>
   <si>
     <t xml:space="preserve">IC8</t>
   </si>
   <si>
-    <t xml:space="preserve">SST25VF080B-50-4C-QAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WSON-8-5X6</t>
+    <t xml:space="preserve">W25Q64BVSSIG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOIC-8-208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFERENCE</t>
   </si>
   <si>
     <t xml:space="preserve">MOD1</t>
@@ -103,10 +106,7 @@
     <t xml:space="preserve">SOT23-3</t>
   </si>
   <si>
-    <t xml:space="preserve">REFERENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1,2,5,6</t>
+    <t xml:space="preserve">D1,2,4,5</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
@@ -122,12 +122,6 @@
   </si>
   <si>
     <t xml:space="preserve">BZT52C3V9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM712</t>
   </si>
   <si>
     <t xml:space="preserve">LED1</t>
@@ -488,10 +482,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -590,39 +584,42 @@
       <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -664,52 +661,52 @@
         <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,7 +720,10 @@
         <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -733,31 +733,28 @@
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="B17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -771,7 +768,7 @@
         <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -781,11 +778,14 @@
       <c r="B19" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -795,59 +795,56 @@
       <c r="B20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="1" t="n">
-        <v>1</v>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -855,162 +852,162 @@
         <v>67</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>11</v>
+      <c r="A25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>72</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="1" t="s">
         <v>78</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="3"/>
+        <v>74</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>11</v>
+      <c r="B28" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>83</v>
+      <c r="B30" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="3"/>
+        <v>74</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>65</v>
+      <c r="B31" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="1" t="s">
         <v>92</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="3"/>
+        <v>74</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1018,13 +1015,13 @@
         <v>96</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1032,27 +1029,27 @@
         <v>98</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="C36" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="D36" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>102</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1060,41 +1057,42 @@
         <v>103</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>11</v>
+      <c r="B39" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="D39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="E40" s="3"/>
     </row>
@@ -1109,7 +1107,7 @@
         <v>110</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E41" s="3"/>
     </row>
@@ -1121,49 +1119,34 @@
         <v>11</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>71</v>
+      <c r="D43" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="E43" s="3"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E44" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E12" r:id="rId1" display="link"/>
-    <hyperlink ref="E16" r:id="rId2" display="link"/>
-    <hyperlink ref="E20" r:id="rId3" display="link"/>
-    <hyperlink ref="E21" r:id="rId4" display="link"/>
+    <hyperlink ref="E11" r:id="rId1" display="link"/>
+    <hyperlink ref="E15" r:id="rId2" display="link"/>
+    <hyperlink ref="E19" r:id="rId3" display="link"/>
+    <hyperlink ref="E20" r:id="rId4" display="link"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/rtu/eagle/BOM.xlsx
+++ b/rtu/eagle/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="116">
   <si>
     <t xml:space="preserve">IC1</t>
   </si>
@@ -40,7 +40,22 @@
     <t xml:space="preserve">SOT23-6</t>
   </si>
   <si>
-    <t xml:space="preserve">IC3,4</t>
+    <t xml:space="preserve">IC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS3231M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOIC-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOW COST CHINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC4,5</t>
   </si>
   <si>
     <t xml:space="preserve">OPTOCOUPLER TRANSISTOR OUTPUT 4P 3.6X4.4MM BODY</t>
@@ -52,7 +67,7 @@
     <t xml:space="preserve">PC817 REFERENCE</t>
   </si>
   <si>
-    <t xml:space="preserve">IC5,6</t>
+    <t xml:space="preserve">IC6,7</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
@@ -64,48 +79,36 @@
     <t xml:space="preserve">VSSOP-10</t>
   </si>
   <si>
-    <t xml:space="preserve">IC7</t>
+    <t xml:space="preserve">IC8</t>
   </si>
   <si>
     <t xml:space="preserve">ISL3172EIBZ</t>
   </si>
   <si>
-    <t xml:space="preserve">SOIC-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W25Q64BVSSIG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOIC-8-208</t>
+    <t xml:space="preserve">MOD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAK4200 (H) 868MHZ LORA MODULE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAKWIRELESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI2302DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT23-3</t>
   </si>
   <si>
     <t xml:space="preserve">REFERENCE</t>
   </si>
   <si>
-    <t xml:space="preserve">MOD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAK4200 (H) 868MHZ LORA MODULE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAKWIRELESS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI2302DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOT23-3</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1,2,4,5</t>
   </si>
   <si>
@@ -172,7 +175,16 @@
     <t xml:space="preserve">HK19F-3VDC-SHG STANDARD DIP RELAY 20X10X11MM &lt;200MW COIL</t>
   </si>
   <si>
-    <t xml:space="preserve">AXICOM 1-1462001 REFERENCE</t>
+    <t xml:space="preserve">BAT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR1220 BATTERY HOLDER INSERT DIA 13MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BC501SM REFERENCE</t>
   </si>
   <si>
     <t xml:space="preserve">CON1</t>
@@ -199,9 +211,6 @@
     <t xml:space="preserve">STANDARD MICRO B USB FEMALE CONNECTOR</t>
   </si>
   <si>
-    <t xml:space="preserve">SM</t>
-  </si>
-  <si>
     <t xml:space="preserve">CON5</t>
   </si>
   <si>
@@ -211,9 +220,6 @@
     <t xml:space="preserve">CON6</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
     <t xml:space="preserve">KF2EDGR-3.5-6P</t>
   </si>
   <si>
@@ -235,7 +241,7 @@
     <t xml:space="preserve">(150R @100MHZ) REFERENCE</t>
   </si>
   <si>
-    <t xml:space="preserve">C1,8,15,20,23,26,29</t>
+    <t xml:space="preserve">C1,9,16,19,24,27,30</t>
   </si>
   <si>
     <t xml:space="preserve">7</t>
@@ -247,10 +253,10 @@
     <t xml:space="preserve">0603</t>
   </si>
   <si>
-    <t xml:space="preserve">C2,5,7,11,14,16,17,18,19,21,24,27,28,30,32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
+    <t xml:space="preserve">C2,5,7,8,12,15,17,18,20,21,22,23,25,28,31,33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
   </si>
   <si>
     <t xml:space="preserve">100NF X5R/X7R</t>
@@ -262,7 +268,7 @@
     <t xml:space="preserve">22PF X5R/X7R</t>
   </si>
   <si>
-    <t xml:space="preserve">C6,22,25</t>
+    <t xml:space="preserve">C6,26,29</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
@@ -271,97 +277,97 @@
     <t xml:space="preserve">1UF X5R/X7R</t>
   </si>
   <si>
-    <t xml:space="preserve">C9,12,13</t>
+    <t xml:space="preserve">C10,13,14</t>
   </si>
   <si>
     <t xml:space="preserve">22UF X7R</t>
   </si>
   <si>
-    <t xml:space="preserve">C10</t>
+    <t xml:space="preserve">C11</t>
   </si>
   <si>
     <t xml:space="preserve">100PF X5R/X7R</t>
   </si>
   <si>
-    <t xml:space="preserve">C31</t>
+    <t xml:space="preserve">C32</t>
   </si>
   <si>
     <t xml:space="preserve">100UF 8MM</t>
   </si>
   <si>
-    <t xml:space="preserve">R1,7,9,11,15,17,19,28,29,30,32,35,38,40,42,43,47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
+    <t xml:space="preserve">R1,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22R 5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3,4,10,12,14,18,19,20,22,24,25,30,35,37,40,43,45,47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
   </si>
   <si>
     <t xml:space="preserve">10K 5%</t>
   </si>
   <si>
-    <t xml:space="preserve">R2,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22R 5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4</t>
+    <t xml:space="preserve">R5,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220R 5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7</t>
   </si>
   <si>
     <t xml:space="preserve">115K 1%</t>
   </si>
   <si>
-    <t xml:space="preserve">R5</t>
+    <t xml:space="preserve">R8</t>
   </si>
   <si>
     <t xml:space="preserve">33K 1%</t>
   </si>
   <si>
-    <t xml:space="preserve">R6,8,10,31,33,34,39,41,46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
+    <t xml:space="preserve">R9,11,13,36,38,39,44,46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
   </si>
   <si>
     <t xml:space="preserve">100R 5%</t>
   </si>
   <si>
-    <t xml:space="preserve">R12,13,14</t>
+    <t xml:space="preserve">R15,16,17</t>
   </si>
   <si>
     <t xml:space="preserve">1K 5%</t>
   </si>
   <si>
-    <t xml:space="preserve">R16,18</t>
+    <t xml:space="preserve">R21,23</t>
   </si>
   <si>
     <t xml:space="preserve">2K2 5%</t>
   </si>
   <si>
-    <t xml:space="preserve">R20,22,24,26</t>
+    <t xml:space="preserve">R26,28,31,33</t>
   </si>
   <si>
     <t xml:space="preserve">10R 1%</t>
   </si>
   <si>
-    <t xml:space="preserve">R21,25</t>
+    <t xml:space="preserve">R27,32</t>
   </si>
   <si>
     <t xml:space="preserve">3.3R 1%</t>
   </si>
   <si>
-    <t xml:space="preserve">R23,27</t>
+    <t xml:space="preserve">R29,34</t>
   </si>
   <si>
     <t xml:space="preserve">10R 5%</t>
   </si>
   <si>
-    <t xml:space="preserve">R36,37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R44,45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220R 5%</t>
+    <t xml:space="preserve">R41,42</t>
   </si>
 </sst>
 </file>
@@ -482,15 +488,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="48.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="66.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.89"/>
@@ -530,25 +536,25 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -556,36 +562,36 @@
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -610,7 +616,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
@@ -619,218 +625,219 @@
         <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>56</v>
+      <c r="C19" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>58</v>
+      <c r="C20" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="1" t="s">
         <v>63</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -838,13 +845,13 @@
         <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -852,262 +859,262 @@
         <v>67</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="3" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="3"/>
+        <v>76</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>63</v>
+      <c r="B30" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>63</v>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="3"/>
+        <v>76</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="D37" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>29</v>
+      <c r="B39" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E39" s="3"/>
+      <c r="D39" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>11</v>
+      <c r="B40" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="3"/>
+      <c r="D40" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E41" s="3"/>
     </row>
@@ -1116,37 +1123,52 @@
         <v>111</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="E42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>74</v>
+        <v>114</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E43" s="3"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E11" r:id="rId1" display="link"/>
     <hyperlink ref="E15" r:id="rId2" display="link"/>
-    <hyperlink ref="E19" r:id="rId3" display="link"/>
-    <hyperlink ref="E20" r:id="rId4" display="link"/>
+    <hyperlink ref="E20" r:id="rId3" display="link"/>
+    <hyperlink ref="E21" r:id="rId4" display="link"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/rtu/eagle/BOM.xlsx
+++ b/rtu/eagle/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="114">
   <si>
     <t xml:space="preserve">IC1</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">SOIC-8</t>
   </si>
   <si>
-    <t xml:space="preserve">LOW COST CHINA</t>
+    <t xml:space="preserve">link</t>
   </si>
   <si>
     <t xml:space="preserve">IC4,5</t>
@@ -136,9 +136,6 @@
     <t xml:space="preserve">DIP</t>
   </si>
   <si>
-    <t xml:space="preserve">link</t>
-  </si>
-  <si>
     <t xml:space="preserve">XT1</t>
   </si>
   <si>
@@ -178,15 +175,28 @@
     <t xml:space="preserve">BAT1</t>
   </si>
   <si>
-    <t xml:space="preserve">CR1220 BATTERY HOLDER INSERT DIA 13MM</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CR1220 BATTERY HOLDER INSERT DIA 13MM  ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">BS-1220 )</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">SM</t>
   </si>
   <si>
-    <t xml:space="preserve">BC501SM REFERENCE</t>
-  </si>
-  <si>
     <t xml:space="preserve">CON1</t>
   </si>
   <si>
@@ -232,7 +242,7 @@
     <t xml:space="preserve">L2,3</t>
   </si>
   <si>
-    <t xml:space="preserve">MMZ2012Y152B FERRITE BEAD  500MA</t>
+    <t xml:space="preserve">MMZ2012Y152B FERRITE BEAD</t>
   </si>
   <si>
     <t xml:space="preserve">0805</t>
@@ -378,7 +388,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -406,6 +416,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -450,7 +465,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -463,12 +478,16 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -490,8 +509,8 @@
   </sheetPr>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -545,7 +564,7 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -579,6 +598,9 @@
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -593,6 +615,9 @@
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -635,11 +660,14 @@
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -649,11 +677,14 @@
       <c r="B10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -669,110 +700,121 @@
       <c r="D11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>38</v>
+      <c r="E11" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>41</v>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>44</v>
+      <c r="E13" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>38</v>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>54</v>
+      <c r="E17" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>56</v>
+      <c r="C18" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>37</v>
@@ -780,13 +822,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>58</v>
+      <c r="C19" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>37</v>
@@ -794,47 +836,47 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>38</v>
+      <c r="E20" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>62</v>
+      <c r="C21" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>38</v>
+        <v>52</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>64</v>
+      <c r="C22" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>37</v>
@@ -842,13 +884,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>66</v>
+      <c r="C23" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>37</v>
@@ -856,319 +898,327 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>68</v>
+      <c r="C24" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="D29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="B30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="E30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>92</v>
+      <c r="C33" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="B35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>99</v>
+      <c r="C36" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>106</v>
+        <v>81</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
+      <c r="D41" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="B42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
+      <c r="D42" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C43" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
+      <c r="D43" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="3"/>
+      <c r="C44" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" display="link"/>
-    <hyperlink ref="E15" r:id="rId2" display="link"/>
-    <hyperlink ref="E20" r:id="rId3" display="link"/>
-    <hyperlink ref="E21" r:id="rId4" display="link"/>
+    <hyperlink ref="E3" r:id="rId1" display="link"/>
+    <hyperlink ref="E5" r:id="rId2" display="link"/>
+    <hyperlink ref="E6" r:id="rId3" display="link"/>
+    <hyperlink ref="E11" r:id="rId4" display="link"/>
+    <hyperlink ref="E12" r:id="rId5" display="link"/>
+    <hyperlink ref="E13" r:id="rId6" display="link"/>
+    <hyperlink ref="E14" r:id="rId7" display="link"/>
+    <hyperlink ref="E15" r:id="rId8" display="link"/>
+    <hyperlink ref="E16" r:id="rId9" display="link"/>
+    <hyperlink ref="E17" r:id="rId10" display="link"/>
+    <hyperlink ref="E20" r:id="rId11" display="link"/>
+    <hyperlink ref="E21" r:id="rId12" display="link"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/rtu/eagle/BOM.xlsx
+++ b/rtu/eagle/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="114">
   <si>
     <t xml:space="preserve">IC1</t>
   </si>
@@ -58,15 +58,12 @@
     <t xml:space="preserve">IC4,5</t>
   </si>
   <si>
-    <t xml:space="preserve">OPTOCOUPLER TRANSISTOR OUTPUT 4P 3.6X4.4MM BODY</t>
+    <t xml:space="preserve">HCPL-181-00BE (PC357N)</t>
   </si>
   <si>
     <t xml:space="preserve">SM MINI FLAT</t>
   </si>
   <si>
-    <t xml:space="preserve">PC817 REFERENCE</t>
-  </si>
-  <si>
     <t xml:space="preserve">IC6,7</t>
   </si>
   <si>
@@ -175,23 +172,7 @@
     <t xml:space="preserve">BAT1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">CR1220 BATTERY HOLDER INSERT DIA 13MM  ( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">BS-1220 )</t>
-    </r>
+    <t xml:space="preserve">CR1220 BATTERY HOLDER INSERT 15MM ( BS-1220 ) (BC501SM) (S8411-45R)</t>
   </si>
   <si>
     <t xml:space="preserve">SM</t>
@@ -236,7 +217,10 @@
     <t xml:space="preserve">L1</t>
   </si>
   <si>
-    <t xml:space="preserve">CDRH74R 6.8UH INDUCTOR 7X7X4MM SHIELDED</t>
+    <t xml:space="preserve">CDRH74R 6.8UH INDUCTOR 7.3X7.3X4MM SHIELDED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0630 SIZE SHIELDED REFERENCE</t>
   </si>
   <si>
     <t xml:space="preserve">L2,3</t>
@@ -388,7 +372,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -416,11 +400,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -509,15 +488,15 @@
   </sheetPr>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="48.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="66.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="70.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="45.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
@@ -581,22 +560,22 @@
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>10</v>
@@ -604,13 +583,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -621,84 +600,84 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>10</v>
@@ -706,16 +685,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>10</v>
@@ -723,16 +702,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>10</v>
@@ -740,16 +719,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -757,16 +736,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>10</v>
@@ -774,16 +753,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>10</v>
@@ -791,16 +770,16 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>10</v>
@@ -808,44 +787,44 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>10</v>
@@ -853,16 +832,16 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>10</v>
@@ -870,44 +849,47 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -915,7 +897,7 @@
         <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>68</v>
@@ -962,7 +944,7 @@
         <v>78</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>79</v>
@@ -997,7 +979,7 @@
         <v>84</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30" s="4"/>
     </row>
@@ -1026,7 +1008,7 @@
         <v>88</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E32" s="4"/>
     </row>
@@ -1035,7 +1017,7 @@
         <v>89</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>90</v>
@@ -1065,7 +1047,7 @@
         <v>94</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>95</v>
@@ -1136,7 +1118,7 @@
         <v>105</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>106</v>
@@ -1150,7 +1132,7 @@
         <v>107</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>108</v>
@@ -1165,13 +1147,13 @@
         <v>109</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>110</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E42" s="4"/>
     </row>
@@ -1180,7 +1162,7 @@
         <v>111</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>112</v>
@@ -1195,7 +1177,7 @@
         <v>113</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>112</v>
@@ -1208,17 +1190,18 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="link"/>
-    <hyperlink ref="E5" r:id="rId2" display="link"/>
-    <hyperlink ref="E6" r:id="rId3" display="link"/>
-    <hyperlink ref="E11" r:id="rId4" display="link"/>
-    <hyperlink ref="E12" r:id="rId5" display="link"/>
-    <hyperlink ref="E13" r:id="rId6" display="link"/>
-    <hyperlink ref="E14" r:id="rId7" display="link"/>
-    <hyperlink ref="E15" r:id="rId8" display="link"/>
-    <hyperlink ref="E16" r:id="rId9" display="link"/>
-    <hyperlink ref="E17" r:id="rId10" display="link"/>
-    <hyperlink ref="E20" r:id="rId11" display="link"/>
-    <hyperlink ref="E21" r:id="rId12" display="link"/>
+    <hyperlink ref="E4" r:id="rId2" display="link"/>
+    <hyperlink ref="E5" r:id="rId3" display="link"/>
+    <hyperlink ref="E6" r:id="rId4" display="link"/>
+    <hyperlink ref="E11" r:id="rId5" display="link"/>
+    <hyperlink ref="E12" r:id="rId6" display="link"/>
+    <hyperlink ref="E13" r:id="rId7" display="link"/>
+    <hyperlink ref="E14" r:id="rId8" display="link"/>
+    <hyperlink ref="E15" r:id="rId9" display="link"/>
+    <hyperlink ref="E16" r:id="rId10" display="link"/>
+    <hyperlink ref="E17" r:id="rId11" display="link"/>
+    <hyperlink ref="E20" r:id="rId12" display="link"/>
+    <hyperlink ref="E21" r:id="rId13" display="link"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/rtu/eagle/BOM.xlsx
+++ b/rtu/eagle/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="112">
   <si>
     <t xml:space="preserve">IC1</t>
   </si>
@@ -82,6 +82,15 @@
     <t xml:space="preserve">ISL3172EIBZ</t>
   </si>
   <si>
+    <t xml:space="preserve">IC9,10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUD3124DMT1G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC74-6</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOD1</t>
   </si>
   <si>
@@ -91,259 +100,244 @@
     <t xml:space="preserve">SM-20</t>
   </si>
   <si>
-    <t xml:space="preserve">RAKWIRELESS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI2302DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOT23-3</t>
+    <t xml:space="preserve">D1,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B5817W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOD123</t>
   </si>
   <si>
     <t xml:space="preserve">REFERENCE</t>
   </si>
   <si>
-    <t xml:space="preserve">D1,2,4,5</t>
+    <t xml:space="preserve">D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BZT52C3V9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED LAMP HOLDER BLOCK RED GREEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRYSTAL PASSIVE 8MHZ 4PIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTC RESETTABLE FUSE 0.5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F2,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTC RESETTABLE FUSE 0.05A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW1,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUSH BUTTON TACTILE SWITCH 6X6X9MM R/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW3,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HFD2-003-M-L2 3VDC BISTABLE/LATCH 2 COIL RELAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR1220 BATTERY HOLDER INSERT 15MM ( BS-1220 ) (BC501SM) (S8411-45R)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CON1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEADER MALE 2.54MM 6P 2R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CON2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEADER MALE 2.54MM 8P 2R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CON3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONNECTOR RF SMA R/A EOCT-WF1320 57001579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CON4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD MICRO B USB FEMALE CONNECTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CON5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KF2EDGR-3.5-12P + KF2EDGK-3.5-12P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CON6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KF2EDGR-3.5-6P + KF2EDGK-3.5-12P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDRH74R 6.8UH INDUCTOR 7.3X7.3X4MM SHIELDED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0630 SIZE SHIELDED REFERENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMZ2012Y152B FERRITE BEAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(150R @100MHZ) REFERENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1,9,16,19,24,27,30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7UF X5R/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2,5,7,8,12,15,17,18,20,21,22,23,25,28,31,33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100NF X5R/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22PF X5R/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6,26,29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1UF X5R/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10,13,14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22UF X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100PF X5R/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100UF 8MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22R 5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3,4,10,12,14,18,19,20,22,24,25,30,35,37,40,43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10K 5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220R 5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115K 1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33K 1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9,11,13,36,38,39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100R 5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R15,16,17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1K 5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R21,23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2K2 5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R26,28,31,33</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B5817W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOD123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BZT52C3V9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED LAMP HOLDER BLOCK RED GREEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRYSTAL PASSIVE 8MHZ 4PIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTC RESETTABLE FUSE 0.5A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F2,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTC RESETTABLE FUSE 0.05A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW1,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUSH BUTTON TACTILE SWITCH 6X6X9MM R/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW3,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HK19F-3VDC-SHG STANDARD DIP RELAY 20X10X11MM &lt;200MW COIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR1220 BATTERY HOLDER INSERT 15MM ( BS-1220 ) (BC501SM) (S8411-45R)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CON1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEADER MALE 2.54MM 6P 2R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CON2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEADER MALE 2.54MM 8P 2R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CON3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONNECTOR RF SMA R/A EOCT-WF1320 57001579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CON4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD MICRO B USB FEMALE CONNECTOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CON5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KF2EDGR-3.5-12P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CON6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KF2EDGR-3.5-6P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDRH74R 6.8UH INDUCTOR 7.3X7.3X4MM SHIELDED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0630 SIZE SHIELDED REFERENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMZ2012Y152B FERRITE BEAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(150R @100MHZ) REFERENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1,9,16,19,24,27,30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7UF X5R/X7R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2,5,7,8,12,15,17,18,20,21,22,23,25,28,31,33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100NF X5R/X7R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22PF X5R/X7R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6,26,29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1UF X5R/X7R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10,13,14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22UF X7R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100PF X5R/X7R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100UF 8MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22R 5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3,4,10,12,14,18,19,20,22,24,25,30,35,37,40,43,45,47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10K 5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220R 5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115K 1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33K 1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R9,11,13,36,38,39,44,46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100R 5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R15,16,17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1K 5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R21,23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2K2 5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R26,28,31,33</t>
   </si>
   <si>
     <t xml:space="preserve">10R 1%</t>
@@ -486,10 +480,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -499,7 +493,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="70.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="45.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -602,8 +597,8 @@
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>1</v>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>21</v>
@@ -611,73 +606,73 @@
       <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>10</v>
@@ -685,16 +680,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>10</v>
@@ -702,16 +697,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>10</v>
@@ -719,16 +714,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -736,16 +731,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>10</v>
@@ -753,16 +748,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>10</v>
@@ -770,16 +765,16 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>10</v>
@@ -787,44 +782,44 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>10</v>
@@ -832,16 +827,16 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>10</v>
@@ -849,341 +844,345 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E44" s="4"/>
     </row>
@@ -1193,15 +1192,17 @@
     <hyperlink ref="E4" r:id="rId2" display="link"/>
     <hyperlink ref="E5" r:id="rId3" display="link"/>
     <hyperlink ref="E6" r:id="rId4" display="link"/>
-    <hyperlink ref="E11" r:id="rId5" display="link"/>
-    <hyperlink ref="E12" r:id="rId6" display="link"/>
-    <hyperlink ref="E13" r:id="rId7" display="link"/>
-    <hyperlink ref="E14" r:id="rId8" display="link"/>
-    <hyperlink ref="E15" r:id="rId9" display="link"/>
-    <hyperlink ref="E16" r:id="rId10" display="link"/>
-    <hyperlink ref="E17" r:id="rId11" display="link"/>
-    <hyperlink ref="E20" r:id="rId12" display="link"/>
-    <hyperlink ref="E21" r:id="rId13" display="link"/>
+    <hyperlink ref="E7" r:id="rId5" display="link"/>
+    <hyperlink ref="E8" r:id="rId6" display="link"/>
+    <hyperlink ref="E11" r:id="rId7" display="link"/>
+    <hyperlink ref="E12" r:id="rId8" display="link"/>
+    <hyperlink ref="E13" r:id="rId9" display="link"/>
+    <hyperlink ref="E14" r:id="rId10" display="link"/>
+    <hyperlink ref="E15" r:id="rId11" display="link"/>
+    <hyperlink ref="E16" r:id="rId12" display="link"/>
+    <hyperlink ref="E17" r:id="rId13" display="link"/>
+    <hyperlink ref="E20" r:id="rId14" display="link"/>
+    <hyperlink ref="E21" r:id="rId15" display="link"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/rtu/eagle/BOM.xlsx
+++ b/rtu/eagle/BOM.xlsx
@@ -482,8 +482,8 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1179,7 +1179,7 @@
         <v>15</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>67</v>

--- a/rtu/eagle/BOM.xlsx
+++ b/rtu/eagle/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="122">
   <si>
     <t xml:space="preserve">IC1</t>
   </si>
@@ -172,6 +172,15 @@
     <t xml:space="preserve">SM</t>
   </si>
   <si>
+    <t xml:space="preserve">(BATTERY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR1220 3V LITHIUM COIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COIN</t>
+  </si>
+  <si>
     <t xml:space="preserve">CON1</t>
   </si>
   <si>
@@ -199,13 +208,13 @@
     <t xml:space="preserve">CON5</t>
   </si>
   <si>
-    <t xml:space="preserve">KF2EDGR-3.5-12P + KF2EDGK-3.5-12P</t>
+    <t xml:space="preserve">KF2EDGR-3.5-12P (HEADER) + KF2EDGK-3.5-12P (PLUG)</t>
   </si>
   <si>
     <t xml:space="preserve">CON6</t>
   </si>
   <si>
-    <t xml:space="preserve">KF2EDGR-3.5-6P + KF2EDGK-3.5-12P</t>
+    <t xml:space="preserve">KF2EDGR-3.5-6P (HEADER) + KF2EDGK-3.5-12P (PLUG)</t>
   </si>
   <si>
     <t xml:space="preserve">L1</t>
@@ -356,6 +365,27 @@
   </si>
   <si>
     <t xml:space="preserve">R41,42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTENNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">868MHZ 5DBI SMA-MALE WHIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALUMINUM ENCLOSURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AK-C-A4 28(H)X66(L)X104(W) MM COLOR BLUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">angie@szomk.com.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR4 1.6MM 1ozCu 76.2X65.4MM (3000X2575MIL) BLUE MASK</t>
   </si>
 </sst>
 </file>
@@ -438,7 +468,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -463,6 +493,18 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,15 +522,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="48.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="53.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="70.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.89"/>
@@ -784,25 +826,26 @@
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>34</v>
@@ -810,33 +853,30 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>55</v>
+      <c r="C20" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>57</v>
+      <c r="C21" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>10</v>
@@ -844,258 +884,261 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>61</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="1" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+      <c r="B27" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="4"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="C31" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="C33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="E33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C36" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>96</v>
+      <c r="C37" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1103,88 +1146,146 @@
         <v>100</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="4"/>
+      <c r="D41" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E44" s="4"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="0"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F49" s="0"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="0"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1201,8 +1302,10 @@
     <hyperlink ref="E15" r:id="rId11" display="link"/>
     <hyperlink ref="E16" r:id="rId12" display="link"/>
     <hyperlink ref="E17" r:id="rId13" display="link"/>
-    <hyperlink ref="E20" r:id="rId14" display="link"/>
-    <hyperlink ref="E21" r:id="rId15" display="link"/>
+    <hyperlink ref="E21" r:id="rId14" display="link"/>
+    <hyperlink ref="E22" r:id="rId15" display="link"/>
+    <hyperlink ref="E48" r:id="rId16" display="link"/>
+    <hyperlink ref="E49" r:id="rId17" display="angie@szomk.com.cn"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/rtu/eagle/BOM.xlsx
+++ b/rtu/eagle/BOM.xlsx
@@ -94,7 +94,7 @@
     <t xml:space="preserve">MOD1</t>
   </si>
   <si>
-    <t xml:space="preserve">RAK4200 (H) 868MHZ LORA MODULE</t>
+    <t xml:space="preserve">RAK4200 LORA MODULE EU868MHZ</t>
   </si>
   <si>
     <t xml:space="preserve">SM-20</t>
@@ -524,8 +524,8 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
